--- a/student_invite.xlsx
+++ b/student_invite.xlsx
@@ -27,18 +27,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>test1@gmail.com</t>
+    <t>msa24022@iiitl.ac.in</t>
   </si>
   <si>
-    <t>test2@gmail.com</t>
+    <t>poopoodoodoo545@gmail.com</t>
   </si>
   <si>
-    <t>test3@gmail.com</t>
+    <t>100sg.sunitghosh@gmail.com</t>
+  </si>
+  <si>
+    <t>snowpp145@gmail.com</t>
+  </si>
+  <si>
+    <t>hikaruhoshihara100@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -652,10 +658,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,15 +982,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="21.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="40.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1006,11 +1013,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="test1@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="test2@gmail.com" tooltip="mailto:test2@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="test3@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="msa24022@iiitl.ac.in" tooltip="mailto:msa24022@iiitl.ac.in"/>
+    <hyperlink ref="A3" r:id="rId2" display="poopoodoodoo545@gmail.com" tooltip="mailto:poopoodoodoo545@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="100sg.sunitghosh@gmail.com" tooltip="mailto:100sg.sunitghosh@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="snowpp145@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId5" display="hikaruhoshihara100@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
